--- a/biology/Neurosciences/Charles_Scott_Sherrington/Charles_Scott_Sherrington.xlsx
+++ b/biology/Neurosciences/Charles_Scott_Sherrington/Charles_Scott_Sherrington.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Scott Sherrington, né le 27 novembre 1857 à Islington dans le Grand Londres et mort le 4 mars 1952 (à 94 ans) à Eastbourne, Sussex, Angleterre) est un médecin et savant britannique connu pour ses importantes contributions en physiologie et neurosciences et pour avoir inventé le terme de synapse. En 1932, il partage avec Edgar Douglas Adrian le prix Nobel de physiologie ou médecine « pour leurs découvertes sur les fonctions des neurones[1] ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Scott Sherrington, né le 27 novembre 1857 à Islington dans le Grand Londres et mort le 4 mars 1952 (à 94 ans) à Eastbourne, Sussex, Angleterre) est un médecin et savant britannique connu pour ses importantes contributions en physiologie et neurosciences et pour avoir inventé le terme de synapse. En 1932, il partage avec Edgar Douglas Adrian le prix Nobel de physiologie ou médecine « pour leurs découvertes sur les fonctions des neurones ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Ses travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sherrington s'est servi des réflexes de la moelle épinière comme moyen d'investigation des propriétés générales des neurones et du système nerveux. Ces expériences le conduisent à établir sa loi d'innervation réciproque (dite « de Sherrington ») qui stipule qu'à chaque excitation d'un muscle agoniste, correspond une inhibition de son antagoniste.
 Dans le domaine de la physiologie du contrôle moteur on lui doit la notion fondamentale que les neurones moteurs de la corne antérieure de la moelle épinière constituent la « voie finale commune » pour l'exécution de tous les mouvements, qu'ils soient d'origine volontaire, automatique ou réflexe.
@@ -547,7 +561,9 @@
           <t>Sa carrière résumée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sherrington est né à Londres. Il étudie la physiologie auprès de Sir Michael Foster à l'université de Cambridge. En 1887, il entre à la faculté de médecine du St Thomas' Hospital. En 1895, il devient professeur à l'université de Liverpool. Il est enfin nommé à la chaire de physiologie de l'université d'Oxford (la prestigieuse Wayneflet professorship of Physiology) en 1913. Il est président de la Royal Society de 1920 à 1925. Sherrington est décoré Chevalier Grand-Croix de l'Ordre de l'Empire britannique (GBE) en 1922 et de l'Ordre du Mérite (OM) en 1924. Il prend sa retraite en 1935, mais continue à enseigner et à écrire.
 Veuf d'Ethel Wright depuis 1933, il meurt à Eastbourne dans le Sussex, le 4 mars 1952 (à 94 ans).
@@ -579,7 +595,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>The Integrative Action of the Nervous System New York, Charles Scribner's Sons, 1906
 Reflexes elicitable in the cat from pinna, vibrissae and jaws, J. Physiol., 51, London, 1917:404-431
